--- a/VQC R work/Data Sheets/PFAS_Rdata_Water.xlsx
+++ b/VQC R work/Data Sheets/PFAS_Rdata_Water.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28813"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10420"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="72" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E61B4283-B291-4000-ACBA-12A1AF8D3E4A}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://keckmedicine-my.sharepoint.com/personal/victoria_quonchow_med_usc_edu/Documents/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="76" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{23118F76-C5D7-CA4D-8F14-BB0F553D5246}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4580" yWindow="10040" windowWidth="23040" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>W-1</t>
   </si>
@@ -47,12 +52,15 @@
   <si>
     <t>W3</t>
   </si>
+  <si>
+    <t>W4</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,7 +77,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -163,11 +171,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -175,6 +198,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -509,15 +534,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="B5:M6"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B1" s="2">
         <v>3920</v>
       </c>
@@ -555,7 +580,7 @@
         <v>3939</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -596,7 +621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -637,7 +662,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -678,7 +703,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -719,32 +744,32 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="6">
         <v>0.9</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="6">
         <v>1.8</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="6">
         <v>1.4</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="6">
         <v>2.1</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="6">
         <v>2</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="6">
         <v>0.9</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="6">
         <v>0.7</v>
       </c>
       <c r="J6" s="1">
@@ -758,6 +783,35 @@
       </c>
       <c r="M6" s="1">
         <v>1.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="I7" s="8">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>
